--- a/output/cluster.game_error.json/result.xlsx
+++ b/output/cluster.game_error.json/result.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -413,14 +425,168 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="8"/>
+    <col customWidth="1" max="3" min="3" width="7"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+    <col customWidth="1" max="8" min="8" width="83"/>
+    <col customWidth="1" max="9" min="9" width="12"/>
+    <col customWidth="1" max="10" min="10" width="13"/>
+    <col customWidth="1" max="11" min="11" width="8"/>
+    <col customWidth="1" max="12" min="12" width="9"/>
+    <col customWidth="1" max="13" min="13" width="145"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15" r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FileKey</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Merge</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TopIndex</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TopTotal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Context</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="270" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[_innerHandle]     ...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:20</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024/11/30</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>yingjie.cao</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>366298</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MESSAGE: SafeCallbackWithReturn traceback occurred 
+	...P4\server\Scripts/GameServer\Gm\GmComponent\PlayerGm.lua:1498: attempt to call method 'addPetById' (a nil value)
+stack traceback:
+	...P4\server\Scripts/GameServer\Gm\GmComponent\PlayerGm.lua:1498: in function 'cb'
+	...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:11: in function &lt;...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:10&gt;
+	[C]: in function 'xpcall'
+	...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:17: in function '_innerHandle'
+	C:\__WorldX_P4\server\Engine/Core\Server\GmHandler.lua:96: in function 'handle'
+	...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:1203: in function 'execGmMsg'
+	...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:1215: in function 'method'
+	...ities\SpaceEntities\PlayerComponent\MigrateComponent.lua:120: in function 'method'
+	...dX_P4\server\Engine/Core\Server\MsGateGameRpcHandler.lua:130: in function &lt;...dX_P4\server\Engine/Core\Server\MsGateGameRpcHandler.lua:108&gt;
+	C:\__WorldX_P4\server\Engine/Core\Net\HandlerManager.lua:32: in function &lt;C:\__WorldX_P4\server\Engine/Core\Net\HandlerManager.lua:26&gt;
+	[C]: in function 'pullIO'
+	C:\__WorldX_P4\server\Engine/Core\Net\Scheduler.lua:12: in function 'poll'
+	C:\__WorldX_P4\server\Engine/Core\Server\Game.lua:498: in function 'start'
+	C:\__WorldX_P4\server\Scripts\main.lua:94: in main chunk
+	[C]: at 0x7ff73d204820</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>